--- a/src/CruiseBundle/Resources/report/invoice_agent_spb.xlsx
+++ b/src/CruiseBundle/Resources/report/invoice_agent_spb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -251,18 +251,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -514,112 +508,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,72 +923,72 @@
   <dimension ref="A1:BE42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA32" sqref="BA32"/>
+      <selection activeCell="B13" sqref="B13:AQ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1"/>
-    <col min="2" max="33" width="4.85546875" style="1"/>
-    <col min="34" max="34" width="2.85546875" style="1"/>
-    <col min="35" max="36" width="1.7109375" style="1"/>
-    <col min="37" max="38" width="2.85546875" style="1"/>
-    <col min="39" max="40" width="1.7109375" style="1"/>
-    <col min="41" max="42" width="2.85546875" style="1"/>
-    <col min="43" max="43" width="1.85546875" style="1"/>
-    <col min="44" max="44" width="3.140625" style="1"/>
-    <col min="45" max="52" width="2.85546875" style="1"/>
-    <col min="53" max="57" width="4.85546875" style="1"/>
-    <col min="58" max="1025" width="12.28515625"/>
+    <col min="1" max="1" width="1.6640625" style="1"/>
+    <col min="2" max="33" width="4.83203125" style="1"/>
+    <col min="34" max="34" width="2.83203125" style="1"/>
+    <col min="35" max="36" width="1.6640625" style="1"/>
+    <col min="37" max="38" width="2.83203125" style="1"/>
+    <col min="39" max="40" width="1.6640625" style="1"/>
+    <col min="41" max="42" width="2.83203125" style="1"/>
+    <col min="43" max="43" width="1.83203125" style="1"/>
+    <col min="44" max="44" width="3.1640625" style="1"/>
+    <col min="45" max="52" width="2.83203125" style="1"/>
+    <col min="53" max="57" width="4.83203125" style="1"/>
+    <col min="58" max="1025" width="12.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-    </row>
-    <row r="2" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+    </row>
+    <row r="2" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -1053,56 +1047,56 @@
       <c r="BD2"/>
       <c r="BE2"/>
     </row>
-    <row r="3" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="46" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47">
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="18">
         <v>44030653</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
       <c r="AR3"/>
       <c r="AS3"/>
       <c r="AT3"/>
@@ -1120,52 +1114,52 @@
     </row>
     <row r="4" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="39" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="48">
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20">
         <v>3.0101810499999998E+19</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
       <c r="AR4"/>
       <c r="AS4"/>
       <c r="AT4"/>
@@ -1183,50 +1177,50 @@
     </row>
     <row r="5" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
       <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5"/>
@@ -1242,62 +1236,62 @@
       <c r="BD5"/>
       <c r="BE5"/>
     </row>
-    <row r="6" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25">
         <v>7813293042</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="43" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44">
+      <c r="L6" s="24"/>
+      <c r="M6" s="25">
         <v>781301001</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="39" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="49">
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="22">
         <v>4.0702810255040004E+19</v>
       </c>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
       <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6"/>
@@ -1315,50 +1309,50 @@
     </row>
     <row r="7" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -1376,48 +1370,48 @@
     </row>
     <row r="8" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8"/>
@@ -1435,50 +1429,50 @@
     </row>
     <row r="9" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
-      <c r="AN9" s="49"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="49"/>
-      <c r="AQ9" s="49"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="22"/>
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9"/>
@@ -1494,52 +1488,52 @@
       <c r="BD9"/>
       <c r="BE9"/>
     </row>
-    <row r="10" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10"/>
@@ -1555,7 +1549,7 @@
       <c r="BD10"/>
       <c r="BE10"/>
     </row>
-    <row r="11" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="50" t="s">
         <v>8</v>
@@ -1616,7 +1610,7 @@
       <c r="BD11"/>
       <c r="BE11"/>
     </row>
-    <row r="12" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1676,52 +1670,52 @@
       <c r="BE12"/>
     </row>
     <row r="13" spans="1:57" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-    </row>
-    <row r="14" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+    </row>
+    <row r="14" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1782,52 +1776,52 @@
     </row>
     <row r="15" spans="1:57" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15"/>
@@ -1843,7 +1837,7 @@
       <c r="BD15"/>
       <c r="BE15"/>
     </row>
-    <row r="16" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1904,52 +1898,52 @@
     </row>
     <row r="17" spans="1:57" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
       <c r="AR17"/>
       <c r="AS17"/>
       <c r="AT17"/>
@@ -1965,7 +1959,7 @@
       <c r="BD17"/>
       <c r="BE17"/>
     </row>
-    <row r="18" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2026,167 +2020,167 @@
     </row>
     <row r="19" spans="1:57" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35" t="s">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35" t="s">
+      <c r="T19" s="31"/>
+      <c r="U19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="33" t="s">
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33" t="s">
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="22" t="s">
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22" t="s">
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="22"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="22"/>
-      <c r="AR19" s="22"/>
-      <c r="AS19" s="22" t="s">
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AT19" s="22"/>
-      <c r="AU19" s="22"/>
-      <c r="AV19" s="22"/>
-      <c r="AW19" s="22" t="s">
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AX19" s="22"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="22"/>
-      <c r="BA19" s="23" t="s">
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="BB19" s="23"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="23"/>
-      <c r="BE19" s="23"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="32"/>
     </row>
     <row r="20" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="24">
+      <c r="B20" s="33">
         <v>1</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27" t="s">
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28">
+      <c r="T20" s="36"/>
+      <c r="U20" s="37">
         <v>33760</v>
       </c>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29">
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38">
         <v>67520</v>
       </c>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="30">
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="39">
         <v>10</v>
       </c>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30">
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39">
         <v>6752</v>
       </c>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="31" t="s">
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="32">
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="40"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="41">
         <v>60768</v>
       </c>
-      <c r="BB20" s="32"/>
-      <c r="BC20" s="32"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
-    </row>
-    <row r="21" spans="1:57" s="1" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="41"/>
+    </row>
+    <row r="21" spans="1:57" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2244,7 +2238,7 @@
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2265,36 +2259,36 @@
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
-      <c r="U22" s="19" t="s">
+      <c r="U22" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="15">
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="44">
         <v>67520</v>
       </c>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
-      <c r="AM22" s="15">
+      <c r="AM22" s="44">
         <v>6752</v>
       </c>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
       <c r="AS22"/>
       <c r="AT22"/>
       <c r="AU22"/>
@@ -2303,15 +2297,15 @@
       <c r="AX22"/>
       <c r="AY22"/>
       <c r="AZ22"/>
-      <c r="BA22" s="15">
+      <c r="BA22" s="44">
         <v>60768</v>
       </c>
-      <c r="BB22" s="15"/>
-      <c r="BC22" s="15"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="15"/>
-    </row>
-    <row r="23" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="44"/>
+      <c r="BD22" s="44"/>
+      <c r="BE22" s="44"/>
+    </row>
+    <row r="23" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2366,13 +2360,13 @@
       <c r="AX23"/>
       <c r="AY23"/>
       <c r="AZ23"/>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15"/>
-      <c r="BC23" s="15"/>
-      <c r="BD23" s="15"/>
-      <c r="BE23" s="15"/>
-    </row>
-    <row r="24" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA23" s="44"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="44"/>
+      <c r="BD23" s="44"/>
+      <c r="BE23" s="44"/>
+    </row>
+    <row r="24" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2392,13 +2386,13 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="19" t="s">
+      <c r="T24" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -2427,70 +2421,70 @@
       <c r="AX24"/>
       <c r="AY24"/>
       <c r="AZ24"/>
-      <c r="BA24" s="15">
+      <c r="BA24" s="44">
         <v>60768</v>
       </c>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
-      <c r="BE24" s="15"/>
-    </row>
-    <row r="25" spans="1:57" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="44"/>
+      <c r="BD24" s="44"/>
+      <c r="BE24" s="44"/>
+    </row>
+    <row r="25" spans="1:57" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-    </row>
-    <row r="26" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44"/>
+      <c r="BE25" s="44"/>
+    </row>
+    <row r="26" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
       <c r="AR26"/>
       <c r="AS26"/>
       <c r="AT26"/>
@@ -2506,52 +2500,52 @@
       <c r="BD26"/>
       <c r="BE26"/>
     </row>
-    <row r="27" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
-      <c r="AQ27" s="21"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
       <c r="AR27"/>
       <c r="AS27"/>
       <c r="AT27"/>
@@ -2567,8 +2561,8 @@
       <c r="BD27"/>
       <c r="BE27"/>
     </row>
-    <row r="28" spans="1:57" s="1" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:57" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:57" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2612,7 +2606,7 @@
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
     </row>
-    <row r="30" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2656,26 +2650,26 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
       <c r="G31"/>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
       <c r="Q31"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -2688,23 +2682,23 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="8"/>
       <c r="AB31"/>
-      <c r="AC31" s="17" t="s">
+      <c r="AC31" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-      <c r="AN31" s="17"/>
-      <c r="AO31" s="17"/>
-      <c r="AP31" s="17"/>
-      <c r="AQ31" s="17"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
     </row>
     <row r="32" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
@@ -2713,50 +2707,50 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
       <c r="Q32"/>
-      <c r="R32" s="16" t="s">
+      <c r="R32" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
       <c r="AB32"/>
-      <c r="AC32" s="16" t="s">
+      <c r="AC32" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="16"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-    </row>
-    <row r="33" spans="2:43" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+    </row>
+    <row r="33" spans="2:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -2800,7 +2794,7 @@
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
     </row>
-    <row r="34" spans="2:43" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
@@ -2829,23 +2823,23 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="8"/>
       <c r="AB34"/>
-      <c r="AC34" s="17" t="s">
+      <c r="AC34" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="17"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="17"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-      <c r="AN34" s="17"/>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="17"/>
-      <c r="AQ34" s="17"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="46"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="46"/>
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="46"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
     </row>
     <row r="35" spans="2:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35"/>
@@ -2862,36 +2856,36 @@
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="R35" s="16" t="s">
+      <c r="R35" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
       <c r="AB35"/>
-      <c r="AC35" s="16" t="s">
+      <c r="AC35" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="16"/>
-      <c r="AO35" s="16"/>
-      <c r="AP35" s="16"/>
-      <c r="AQ35" s="16"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="47"/>
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="47"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="47"/>
+      <c r="AP35" s="47"/>
+      <c r="AQ35" s="47"/>
     </row>
     <row r="36" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36"/>
@@ -2935,14 +2929,14 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="2:43" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="2:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -2962,55 +2956,55 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="8"/>
       <c r="AB37"/>
-      <c r="AC37" s="17" t="s">
+      <c r="AC37" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="17"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
     </row>
     <row r="38" spans="2:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
       <c r="AB38"/>
-      <c r="AC38" s="16" t="s">
+      <c r="AC38" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
-      <c r="AO38" s="16"/>
-      <c r="AP38" s="16"/>
-      <c r="AQ38" s="16"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
     </row>
     <row r="39" spans="2:43" x14ac:dyDescent="0.2">
       <c r="AB39"/>
@@ -3028,36 +3022,30 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B1:AQ1"/>
-    <mergeCell ref="B3:S4"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:AQ3"/>
-    <mergeCell ref="T4:V5"/>
-    <mergeCell ref="W4:AQ5"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="W6:AQ9"/>
-    <mergeCell ref="B7:S8"/>
-    <mergeCell ref="B9:S9"/>
-    <mergeCell ref="B10:AQ10"/>
-    <mergeCell ref="B11:AQ11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:V9"/>
-    <mergeCell ref="B13:AQ13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:AQ15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:AQ17"/>
-    <mergeCell ref="AH19:AL19"/>
-    <mergeCell ref="AM19:AR19"/>
-    <mergeCell ref="AS19:AV19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="BA23:BE23"/>
+    <mergeCell ref="R38:AA38"/>
+    <mergeCell ref="AC38:AQ38"/>
+    <mergeCell ref="AC34:AQ34"/>
+    <mergeCell ref="R35:AA35"/>
+    <mergeCell ref="AC35:AQ35"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="BA24:BE24"/>
+    <mergeCell ref="BA25:BE25"/>
+    <mergeCell ref="B26:AQ26"/>
+    <mergeCell ref="B27:AQ27"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="AC37:AQ37"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="H31:P31"/>
+    <mergeCell ref="AC31:AQ31"/>
+    <mergeCell ref="H32:P32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="AC32:AQ32"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AM22:AR22"/>
+    <mergeCell ref="BA22:BE22"/>
     <mergeCell ref="AW19:AZ19"/>
     <mergeCell ref="BA19:BE19"/>
     <mergeCell ref="B20:C20"/>
@@ -3074,30 +3062,36 @@
     <mergeCell ref="BA20:BE20"/>
     <mergeCell ref="Y19:AC19"/>
     <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AM22:AR22"/>
-    <mergeCell ref="BA22:BE22"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="AC37:AQ37"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="H31:P31"/>
-    <mergeCell ref="AC31:AQ31"/>
-    <mergeCell ref="H32:P32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="AC32:AQ32"/>
-    <mergeCell ref="BA23:BE23"/>
-    <mergeCell ref="R38:AA38"/>
-    <mergeCell ref="AC38:AQ38"/>
-    <mergeCell ref="AC34:AQ34"/>
-    <mergeCell ref="R35:AA35"/>
-    <mergeCell ref="AC35:AQ35"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="BA24:BE24"/>
-    <mergeCell ref="BA25:BE25"/>
-    <mergeCell ref="B26:AQ26"/>
-    <mergeCell ref="B27:AQ27"/>
+    <mergeCell ref="AH19:AL19"/>
+    <mergeCell ref="AM19:AR19"/>
+    <mergeCell ref="AS19:AV19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="B13:AQ13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:AQ15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:AQ17"/>
+    <mergeCell ref="W6:AQ9"/>
+    <mergeCell ref="B7:S8"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="B10:AQ10"/>
+    <mergeCell ref="B11:AQ11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:V9"/>
+    <mergeCell ref="B1:AQ1"/>
+    <mergeCell ref="B3:S4"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:AQ3"/>
+    <mergeCell ref="T4:V5"/>
+    <mergeCell ref="W4:AQ5"/>
+    <mergeCell ref="B5:S5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/CruiseBundle/Resources/report/invoice_agent_spb.xlsx
+++ b/src/CruiseBundle/Resources/report/invoice_agent_spb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Внимание! Оплата данного счета означает согласие с условиями предоставления услуги. Уведомление об оплате 
  обязательно, в противном случае не гарантируется наличие забронированных ранее мест. 
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Тюнтюк Н.П.</t>
+  </si>
+  <si>
+    <t>40702810255040011521</t>
+  </si>
+  <si>
+    <t>30101810500000000653</t>
   </si>
 </sst>
 </file>
@@ -251,12 +257,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -523,15 +535,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -613,8 +619,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,23 +935,23 @@
   <dimension ref="A1:BE42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:AQ13"/>
+      <selection activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1"/>
-    <col min="2" max="33" width="4.83203125" style="1"/>
-    <col min="34" max="34" width="2.83203125" style="1"/>
-    <col min="35" max="36" width="1.6640625" style="1"/>
-    <col min="37" max="38" width="2.83203125" style="1"/>
-    <col min="39" max="40" width="1.6640625" style="1"/>
-    <col min="41" max="42" width="2.83203125" style="1"/>
-    <col min="43" max="43" width="1.83203125" style="1"/>
-    <col min="44" max="44" width="3.1640625" style="1"/>
-    <col min="45" max="52" width="2.83203125" style="1"/>
-    <col min="53" max="57" width="4.83203125" style="1"/>
-    <col min="58" max="1025" width="12.33203125"/>
+    <col min="1" max="1" width="1.7109375" style="1"/>
+    <col min="2" max="33" width="4.85546875" style="1"/>
+    <col min="34" max="34" width="2.85546875" style="1"/>
+    <col min="35" max="36" width="1.7109375" style="1"/>
+    <col min="37" max="38" width="2.85546875" style="1"/>
+    <col min="39" max="40" width="1.7109375" style="1"/>
+    <col min="41" max="42" width="2.85546875" style="1"/>
+    <col min="43" max="43" width="1.85546875" style="1"/>
+    <col min="44" max="44" width="3.140625" style="1"/>
+    <col min="45" max="52" width="2.85546875" style="1"/>
+    <col min="53" max="57" width="4.85546875" style="1"/>
+    <col min="58" max="1025" width="12.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,7 +1000,7 @@
       <c r="AP1" s="15"/>
       <c r="AQ1" s="15"/>
     </row>
-    <row r="2" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -1047,7 +1059,7 @@
       <c r="BD2"/>
       <c r="BE2"/>
     </row>
-    <row r="3" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="16" t="s">
         <v>43</v>
@@ -1137,29 +1149,29 @@
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
-      <c r="W4" s="20">
-        <v>3.0101810499999998E+19</v>
-      </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
+      <c r="W4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
       <c r="AR4"/>
       <c r="AS4"/>
       <c r="AT4"/>
@@ -1177,50 +1189,50 @@
     </row>
     <row r="5" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
       <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5"/>
@@ -1236,62 +1248,62 @@
       <c r="BD5"/>
       <c r="BE5"/>
     </row>
-    <row r="6" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23">
         <v>7813293042</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25">
+      <c r="L6" s="22"/>
+      <c r="M6" s="23">
         <v>781301001</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
       <c r="T6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="22">
-        <v>4.0702810255040004E+19</v>
-      </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
+      <c r="W6" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
       <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6"/>
@@ -1332,27 +1344,27 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -1391,27 +1403,27 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8"/>
@@ -1429,50 +1441,50 @@
     </row>
     <row r="9" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9"/>
@@ -1488,52 +1500,52 @@
       <c r="BD9"/>
       <c r="BE9"/>
     </row>
-    <row r="10" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="23"/>
-      <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10"/>
@@ -1549,52 +1561,52 @@
       <c r="BD10"/>
       <c r="BE10"/>
     </row>
-    <row r="11" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11"/>
@@ -1610,7 +1622,7 @@
       <c r="BD11"/>
       <c r="BE11"/>
     </row>
-    <row r="12" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1670,52 +1682,52 @@
       <c r="BE12"/>
     </row>
     <row r="13" spans="1:57" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="26"/>
-      <c r="AQ13" s="26"/>
-    </row>
-    <row r="14" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+    </row>
+    <row r="14" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1776,52 +1788,52 @@
     </row>
     <row r="15" spans="1:57" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15"/>
@@ -1837,7 +1849,7 @@
       <c r="BD15"/>
       <c r="BE15"/>
     </row>
-    <row r="16" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1898,52 +1910,52 @@
     </row>
     <row r="17" spans="1:57" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
       <c r="AR17"/>
       <c r="AS17"/>
       <c r="AT17"/>
@@ -1959,7 +1971,7 @@
       <c r="BD17"/>
       <c r="BE17"/>
     </row>
-    <row r="18" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2020,167 +2032,167 @@
     </row>
     <row r="19" spans="1:57" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31" t="s">
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31" t="s">
+      <c r="T19" s="29"/>
+      <c r="U19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="42" t="s">
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42" t="s">
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="29" t="s">
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29" t="s">
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29" t="s">
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29" t="s">
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="32" t="s">
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="BB19" s="32"/>
-      <c r="BC19" s="32"/>
-      <c r="BD19" s="32"/>
-      <c r="BE19" s="32"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="30"/>
+      <c r="BE19" s="30"/>
     </row>
     <row r="20" spans="1:57" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>1</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="35" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36" t="s">
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37">
+      <c r="T20" s="34"/>
+      <c r="U20" s="35">
         <v>33760</v>
       </c>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38">
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="36">
         <v>67520</v>
       </c>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="39">
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="37">
         <v>10</v>
       </c>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39">
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37">
         <v>6752</v>
       </c>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="40" t="s">
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
-      <c r="AY20" s="40"/>
-      <c r="AZ20" s="40"/>
-      <c r="BA20" s="41">
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="39">
         <v>60768</v>
       </c>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="41"/>
-      <c r="BE20" s="41"/>
-    </row>
-    <row r="21" spans="1:57" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+    </row>
+    <row r="21" spans="1:57" s="1" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2238,7 +2250,7 @@
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2259,36 +2271,36 @@
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
-      <c r="U22" s="43" t="s">
+      <c r="U22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="44">
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="42">
         <v>67520</v>
       </c>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
-      <c r="AM22" s="44">
+      <c r="AM22" s="42">
         <v>6752</v>
       </c>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
       <c r="AS22"/>
       <c r="AT22"/>
       <c r="AU22"/>
@@ -2297,15 +2309,15 @@
       <c r="AX22"/>
       <c r="AY22"/>
       <c r="AZ22"/>
-      <c r="BA22" s="44">
+      <c r="BA22" s="42">
         <v>60768</v>
       </c>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-    </row>
-    <row r="23" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
+    </row>
+    <row r="23" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2360,13 +2372,13 @@
       <c r="AX23"/>
       <c r="AY23"/>
       <c r="AZ23"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-    </row>
-    <row r="24" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+    </row>
+    <row r="24" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2386,13 +2398,13 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="43" t="s">
+      <c r="T24" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -2421,70 +2433,70 @@
       <c r="AX24"/>
       <c r="AY24"/>
       <c r="AZ24"/>
-      <c r="BA24" s="44">
+      <c r="BA24" s="42">
         <v>60768</v>
       </c>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-    </row>
-    <row r="25" spans="1:57" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB24" s="42"/>
+      <c r="BC24" s="42"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="42"/>
+    </row>
+    <row r="25" spans="1:57" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-    </row>
-    <row r="26" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="42"/>
+    </row>
+    <row r="26" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
       <c r="AR26"/>
       <c r="AS26"/>
       <c r="AT26"/>
@@ -2500,52 +2512,52 @@
       <c r="BD26"/>
       <c r="BE26"/>
     </row>
-    <row r="27" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
       <c r="AR27"/>
       <c r="AS27"/>
       <c r="AT27"/>
@@ -2561,8 +2573,8 @@
       <c r="BD27"/>
       <c r="BE27"/>
     </row>
-    <row r="28" spans="1:57" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:57" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" s="1" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:57" ht="6.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2606,7 +2618,7 @@
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
     </row>
-    <row r="30" spans="1:57" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2650,26 +2662,26 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:57" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="45" t="s">
+    <row r="31" spans="1:57" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
       <c r="G31"/>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
       <c r="Q31"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -2682,23 +2694,23 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="8"/>
       <c r="AB31"/>
-      <c r="AC31" s="46" t="s">
+      <c r="AC31" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
     </row>
     <row r="32" spans="1:57" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32"/>
@@ -2707,50 +2719,50 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
       <c r="Q32"/>
-      <c r="R32" s="47" t="s">
+      <c r="R32" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
       <c r="AB32"/>
-      <c r="AC32" s="47" t="s">
+      <c r="AC32" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="47"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-    </row>
-    <row r="33" spans="2:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+    </row>
+    <row r="33" spans="2:43" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -2794,7 +2806,7 @@
       <c r="AP33" s="9"/>
       <c r="AQ33" s="9"/>
     </row>
-    <row r="34" spans="2:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:43" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
@@ -2823,23 +2835,23 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="8"/>
       <c r="AB34"/>
-      <c r="AC34" s="46" t="s">
+      <c r="AC34" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="46"/>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="46"/>
-      <c r="AL34" s="46"/>
-      <c r="AM34" s="46"/>
-      <c r="AN34" s="46"/>
-      <c r="AO34" s="46"/>
-      <c r="AP34" s="46"/>
-      <c r="AQ34" s="46"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
     </row>
     <row r="35" spans="2:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35"/>
@@ -2856,36 +2868,36 @@
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="R35" s="47" t="s">
+      <c r="R35" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
       <c r="AB35"/>
-      <c r="AC35" s="47" t="s">
+      <c r="AC35" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="47"/>
-      <c r="AI35" s="47"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="47"/>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="47"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="47"/>
-      <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
     </row>
     <row r="36" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36"/>
@@ -2929,14 +2941,14 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="2:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="45" t="s">
+    <row r="37" spans="2:43" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -2956,55 +2968,55 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="8"/>
       <c r="AB37"/>
-      <c r="AC37" s="46" t="s">
+      <c r="AC37" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="46"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="44"/>
+      <c r="AQ37" s="44"/>
     </row>
     <row r="38" spans="2:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R38" s="47" t="s">
+      <c r="R38" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
       <c r="AB38"/>
-      <c r="AC38" s="47" t="s">
+      <c r="AC38" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="47"/>
-      <c r="AL38" s="47"/>
-      <c r="AM38" s="47"/>
-      <c r="AN38" s="47"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
-      <c r="AQ38" s="47"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="45"/>
+      <c r="AO38" s="45"/>
+      <c r="AP38" s="45"/>
+      <c r="AQ38" s="45"/>
     </row>
     <row r="39" spans="2:43" x14ac:dyDescent="0.2">
       <c r="AB39"/>
